--- a/Synthèse Anglais/Synthèse.xlsx
+++ b/Synthèse Anglais/Synthèse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulaire" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1079">
   <si>
     <t>a private individual</t>
   </si>
@@ -460,18 +460,2841 @@
   </si>
   <si>
     <t>Es tu impliqué dans cela</t>
+  </si>
+  <si>
+    <t>He has a good nose for a bargain</t>
+  </si>
+  <si>
+    <t>Il a du flair pour les affaires</t>
+  </si>
+  <si>
+    <t>to get even with</t>
+  </si>
+  <si>
+    <t>Je tiens beaucoup à cela</t>
+  </si>
+  <si>
+    <t>I am counting on it = I am set on it = I have my heart set on it</t>
+  </si>
+  <si>
+    <t>do you want to bet on it</t>
+  </si>
+  <si>
+    <t>watch out for him, he was not born yesterday</t>
+  </si>
+  <si>
+    <t>to kiss something good bye</t>
+  </si>
+  <si>
+    <t>he had no idea of the difficulty</t>
+  </si>
+  <si>
+    <t>Il n'avait aucune idée de la difficulté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you a hand in it </t>
+  </si>
+  <si>
+    <t>to do everythning possible</t>
+  </si>
+  <si>
+    <t>faire tout son possible</t>
+  </si>
+  <si>
+    <t>joking appart, what do you think ?</t>
+  </si>
+  <si>
+    <t>I am dead against it ?</t>
+  </si>
+  <si>
+    <t>Have you caught on ?</t>
+  </si>
+  <si>
+    <t>the odds are ten to one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to have no choice = to have no alternative </t>
+  </si>
+  <si>
+    <t>la cote est de 10 contre 1</t>
+  </si>
+  <si>
+    <t>je n'ai pas le choix</t>
+  </si>
+  <si>
+    <t>in the aggregate</t>
+  </si>
+  <si>
+    <t>globalement, dans l'ensemble</t>
+  </si>
+  <si>
+    <t>to bilk = to cheat = to deceive</t>
+  </si>
+  <si>
+    <t>to incur expense</t>
+  </si>
+  <si>
+    <t>entrainer des dépenses</t>
+  </si>
+  <si>
+    <t>I call your attention to</t>
+  </si>
+  <si>
+    <t>j'attire votre attention sur</t>
+  </si>
+  <si>
+    <t>under the stress of = under the strain of</t>
+  </si>
+  <si>
+    <t>sous la pression de</t>
+  </si>
+  <si>
+    <t>to be proficient = to be sound</t>
+  </si>
+  <si>
+    <t>être compétent</t>
+  </si>
+  <si>
+    <t>to kave the skill = to have the "knowhow"</t>
+  </si>
+  <si>
+    <t>against all ods</t>
+  </si>
+  <si>
+    <t>contre toute attente</t>
+  </si>
+  <si>
+    <t>let us get down to work</t>
+  </si>
+  <si>
+    <t>let's start working seriously</t>
+  </si>
+  <si>
+    <t>mettons nous sérieusement au travail</t>
+  </si>
+  <si>
+    <t>What is your slant ? = What is your standpoint ? = What is your point of view ?</t>
+  </si>
+  <si>
+    <t>Quel est ton point de vue</t>
+  </si>
+  <si>
+    <t>It is difficult to assess at this juncture</t>
+  </si>
+  <si>
+    <t>Il est difficile de faire une estimation dans la conjoncture habituelle</t>
+  </si>
+  <si>
+    <t>to have cut and dried opinions</t>
+  </si>
+  <si>
+    <t>His opinion are decided, they are unlikely to be changed</t>
+  </si>
+  <si>
+    <t>avoir des opinions toutes faites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He squanders his money = he fritters away his money = he plays at ducks and drakes with his money </t>
+  </si>
+  <si>
+    <t>He waste his money</t>
+  </si>
+  <si>
+    <t>Il gaspille son argent, Il jette son argent par la fenêtre</t>
+  </si>
+  <si>
+    <t>He states his view</t>
+  </si>
+  <si>
+    <t>Il exprime clairement son point de vue (de façon claire et complète)</t>
+  </si>
+  <si>
+    <t>I have no way of knowing</t>
+  </si>
+  <si>
+    <t>Je n'ai pas de moyens de le savoir</t>
+  </si>
+  <si>
+    <t>to enlighten someone on a subject</t>
+  </si>
+  <si>
+    <t>éclairer quelqu'un sur un sujet</t>
+  </si>
+  <si>
+    <t>Je transmettrai les informations à notre département technique</t>
+  </si>
+  <si>
+    <t>I shall pass the information on our technical department</t>
+  </si>
+  <si>
+    <t>to look into a question</t>
+  </si>
+  <si>
+    <t>étudier, examiner à fond une question</t>
+  </si>
+  <si>
+    <t>at the moment of decision</t>
+  </si>
+  <si>
+    <t>au moment décisif</t>
+  </si>
+  <si>
+    <t>he has good commonsense</t>
+  </si>
+  <si>
+    <t>Il a beaucoup de bon sens</t>
+  </si>
+  <si>
+    <t>he has not an ounce of commonsense</t>
+  </si>
+  <si>
+    <t>Il n'a pas une once de bon sens</t>
+  </si>
+  <si>
+    <t>to make no case for = to flout = to set at naught = to disregard</t>
+  </si>
+  <si>
+    <t>to ignore someone</t>
+  </si>
+  <si>
+    <t>faire comme si la personne n'existait pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cannot assume this responsibility </t>
+  </si>
+  <si>
+    <t>Je ne puis assumer cette responsabilité</t>
+  </si>
+  <si>
+    <t>That is how I see things</t>
+  </si>
+  <si>
+    <t>C'est commme cela que je vois les choses</t>
+  </si>
+  <si>
+    <t>It takes up too much time</t>
+  </si>
+  <si>
+    <t>Cela prend trop de temps</t>
+  </si>
+  <si>
+    <t>To set up a Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To start a company / a business </t>
+  </si>
+  <si>
+    <t>fonder une société</t>
+  </si>
+  <si>
+    <t>It will be better for you to wait until the results are known</t>
+  </si>
+  <si>
+    <t>Tu ferais mieux d'attendre que les résultats soient connus</t>
+  </si>
+  <si>
+    <t>It never occured to me</t>
+  </si>
+  <si>
+    <t>Cela ne m'est jamais venus à l'esprit</t>
+  </si>
+  <si>
+    <t>Due to a lot of troublesn he is always keyed up</t>
+  </si>
+  <si>
+    <t>He is under pressure</t>
+  </si>
+  <si>
+    <t>A cause de nombreux problèmes, il est toujours sous pression</t>
+  </si>
+  <si>
+    <t>The last argument won him over</t>
+  </si>
+  <si>
+    <t>Le dernier argument à finis par le convaincre</t>
+  </si>
+  <si>
+    <t>to stand for parliament</t>
+  </si>
+  <si>
+    <t>to be candidate for</t>
+  </si>
+  <si>
+    <t>to run for congressional office (U.S.)</t>
+  </si>
+  <si>
+    <t>She forced my hand</t>
+  </si>
+  <si>
+    <t>Elle m' a forcée la main</t>
+  </si>
+  <si>
+    <t>Thanks to his father, his career is mapped out</t>
+  </si>
+  <si>
+    <t>Grâce à son père, sa carrière est toute tracée</t>
+  </si>
+  <si>
+    <t>To get things straight</t>
+  </si>
+  <si>
+    <t>Mettre les choses au clair = Mettre les choses au point</t>
+  </si>
+  <si>
+    <t>To weather the storm = to come trough</t>
+  </si>
+  <si>
+    <t>Surmonter ses difficultés</t>
+  </si>
+  <si>
+    <t>He overcomes his difficulties</t>
+  </si>
+  <si>
+    <t>They live from hand to mouth</t>
+  </si>
+  <si>
+    <t>Il surmonte ses difficultés</t>
+  </si>
+  <si>
+    <t>Ils vivent au jour le jour</t>
+  </si>
+  <si>
+    <t>He is said to be very rich</t>
+  </si>
+  <si>
+    <t>On le dit très jour</t>
+  </si>
+  <si>
+    <t>He is bound to succeed</t>
+  </si>
+  <si>
+    <t>Il va forcément réussir</t>
+  </si>
+  <si>
+    <t>They are on christian name terms</t>
+  </si>
+  <si>
+    <t>Ils sont à tu et à toi</t>
+  </si>
+  <si>
+    <t>They are as thick as thieves</t>
+  </si>
+  <si>
+    <t>Ils sont comme larrons en foire</t>
+  </si>
+  <si>
+    <t>They are hand in glove together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to bribe </t>
+  </si>
+  <si>
+    <t>soudoyer</t>
+  </si>
+  <si>
+    <t>to assess</t>
+  </si>
+  <si>
+    <t>évaluer, donner la valeur de quelque chose</t>
+  </si>
+  <si>
+    <t>juncture</t>
+  </si>
+  <si>
+    <t>conjoncture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ounce </t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <r>
+      <t>27,264 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>drakes</t>
+  </si>
+  <si>
+    <t>faire des ricochets</t>
+  </si>
+  <si>
+    <t>naught</t>
+  </si>
+  <si>
+    <t>zéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you do for a living ? </t>
+  </si>
+  <si>
+    <t>que faites vous pour vivre ?</t>
+  </si>
+  <si>
+    <t>We keep in with them = we are on good terms with them</t>
+  </si>
+  <si>
+    <t>We stay in good therm</t>
+  </si>
+  <si>
+    <t>Nous restons en bons termes avec eux</t>
+  </si>
+  <si>
+    <t>I hope you will not misunderstand my remark</t>
+  </si>
+  <si>
+    <t>J'espère que vous n'aller pas mal interpréter ma remarque</t>
+  </si>
+  <si>
+    <t>I happenned to meet him yesterday</t>
+  </si>
+  <si>
+    <t>Je l'ai rencontré hier par hasard</t>
+  </si>
+  <si>
+    <t>I am in the dark about the business</t>
+  </si>
+  <si>
+    <t>J'ignore tout à ce sujet</t>
+  </si>
+  <si>
+    <t>On this point, wee agree with you</t>
+  </si>
+  <si>
+    <t>Je ne suis pas d'accord avec toi sur ce point</t>
+  </si>
+  <si>
+    <t>Can you spare it ?</t>
+  </si>
+  <si>
+    <t>Peut tu t'en passer ?</t>
+  </si>
+  <si>
+    <t>We have had a rought time (of it)</t>
+  </si>
+  <si>
+    <t>Nous avons eu des moments difficiles, on en a vu des vertes et des pas mures</t>
+  </si>
+  <si>
+    <t>Tenir des négociations secrètes</t>
+  </si>
+  <si>
+    <t>To squash someone</t>
+  </si>
+  <si>
+    <t>To have secret negociations</t>
+  </si>
+  <si>
+    <t>To do the donkey work</t>
+  </si>
+  <si>
+    <t>Pour tout l'or du monde</t>
+  </si>
+  <si>
+    <t>He had a good start with both capital and connections</t>
+  </si>
+  <si>
+    <t>Il a eu un bon départ grâce à son capital et ses relations</t>
+  </si>
+  <si>
+    <t>He started with a bang</t>
+  </si>
+  <si>
+    <t>Il a démarré sur les chapeaux de roues</t>
+  </si>
+  <si>
+    <t>To water down</t>
+  </si>
+  <si>
+    <t>mettre de l'eau dans son vin, faire des concessions</t>
+  </si>
+  <si>
+    <t>To tone down</t>
+  </si>
+  <si>
+    <t>I don't see what he is driving at</t>
+  </si>
+  <si>
+    <t>To be in cash</t>
+  </si>
+  <si>
+    <t>To be out of cash</t>
+  </si>
+  <si>
+    <t>Business is looking well</t>
+  </si>
+  <si>
+    <t>To do the trick</t>
+  </si>
+  <si>
+    <t>It is common practice</t>
+  </si>
+  <si>
+    <t>To hold talks on …</t>
+  </si>
+  <si>
+    <t>Will you be so kind as to spare me a few minutes</t>
+  </si>
+  <si>
+    <t>Do you happen to know whether</t>
+  </si>
+  <si>
+    <t>Les affaires sont prometeuses</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>âme</t>
+  </si>
+  <si>
+    <t>to telephone someone = to phone someone = to ring someone up = to give someone a ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dial </t>
+  </si>
+  <si>
+    <t>le cadran</t>
+  </si>
+  <si>
+    <t>to dial a number</t>
+  </si>
+  <si>
+    <t>composé un numéro</t>
+  </si>
+  <si>
+    <t>He dialled a wrong number</t>
+  </si>
+  <si>
+    <t>Il a formé le mauvais numéro</t>
+  </si>
+  <si>
+    <t>the dialling tone</t>
+  </si>
+  <si>
+    <t>la tonalité</t>
+  </si>
+  <si>
+    <t>There is no buzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no dialling tone </t>
+  </si>
+  <si>
+    <t>Il n'y a aucune tonalité</t>
+  </si>
+  <si>
+    <t>a telephone booth</t>
+  </si>
+  <si>
+    <t>une cabine téléphonique</t>
+  </si>
+  <si>
+    <t>a local call</t>
+  </si>
+  <si>
+    <t>un appel local</t>
+  </si>
+  <si>
+    <t>an international call</t>
+  </si>
+  <si>
+    <t>un appel international</t>
+  </si>
+  <si>
+    <t>please hold on = please hold the line</t>
+  </si>
+  <si>
+    <t>Please speak up</t>
+  </si>
+  <si>
+    <t>Veuilliez parler plus fort</t>
+  </si>
+  <si>
+    <t>Veuilliez rester en ligne</t>
+  </si>
+  <si>
+    <t>to hang up</t>
+  </si>
+  <si>
+    <t>raccrocher</t>
+  </si>
+  <si>
+    <t>I'll ring you upfor a definite appointment</t>
+  </si>
+  <si>
+    <t>Je téléphonerai pour fixer définitivement un rendez vous (d'affaire)</t>
+  </si>
+  <si>
+    <t>We were cut off</t>
+  </si>
+  <si>
+    <t>Nous avons été coupé</t>
+  </si>
+  <si>
+    <t>The telephone directory</t>
+  </si>
+  <si>
+    <t>l'annuaire téléphonique</t>
+  </si>
+  <si>
+    <t>Look it up in the telephone directory</t>
+  </si>
+  <si>
+    <t>Rechercher dans l'annuaire téléphonique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you please connect me with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourriez vous me passer </t>
+  </si>
+  <si>
+    <t>You have Mr Smith on the phone (= on the telephone = aver the telephone)</t>
+  </si>
+  <si>
+    <t>Vous avez Mr Smith au téléphone</t>
+  </si>
+  <si>
+    <t>All the business is done over the telephone</t>
+  </si>
+  <si>
+    <t>Toutes les affaires se traitent par téléphone</t>
+  </si>
+  <si>
+    <t>Call him back, please</t>
+  </si>
+  <si>
+    <t>Veuillez le rappeller</t>
+  </si>
+  <si>
+    <t>Time is up</t>
+  </si>
+  <si>
+    <t>Time has elapsed</t>
+  </si>
+  <si>
+    <t>Le temps est écoulé</t>
+  </si>
+  <si>
+    <t>3 minutes up</t>
+  </si>
+  <si>
+    <t>3 minutes d'écoulées</t>
+  </si>
+  <si>
+    <t>the line is engaged</t>
+  </si>
+  <si>
+    <t>la ligne est occupée</t>
+  </si>
+  <si>
+    <t>the telephone wire</t>
+  </si>
+  <si>
+    <t>le cable téléphonique</t>
+  </si>
+  <si>
+    <t>a coin</t>
+  </si>
+  <si>
+    <t>une pièce de monnaie</t>
+  </si>
+  <si>
+    <t>a token</t>
+  </si>
+  <si>
+    <t>un jeton</t>
+  </si>
+  <si>
+    <t>a collect call (= a reverse charge call)</t>
+  </si>
+  <si>
+    <t>un appel en PCV</t>
+  </si>
+  <si>
+    <t>Esquire</t>
+  </si>
+  <si>
+    <t>écuyer</t>
+  </si>
+  <si>
+    <t>plus petit titre de noblesse</t>
+  </si>
+  <si>
+    <t>time and again</t>
+  </si>
+  <si>
+    <t>à maintes reprises</t>
+  </si>
+  <si>
+    <t>Acknowledgement</t>
+  </si>
+  <si>
+    <t>Accusé de réception</t>
+  </si>
+  <si>
+    <t>Thanking you in advance</t>
+  </si>
+  <si>
+    <t>thanks beforehand</t>
+  </si>
+  <si>
+    <t>apology</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>apologies (pl.)</t>
+  </si>
+  <si>
+    <t>to apologize</t>
+  </si>
+  <si>
+    <t>présenter ses excuses</t>
+  </si>
+  <si>
+    <t>to trust</t>
+  </si>
+  <si>
+    <t>croire, faire confiance à</t>
+  </si>
+  <si>
+    <t>to deliver</t>
+  </si>
+  <si>
+    <t>livrer</t>
+  </si>
+  <si>
+    <t>the delivery</t>
+  </si>
+  <si>
+    <t>la livraison</t>
+  </si>
+  <si>
+    <t>to dammage</t>
+  </si>
+  <si>
+    <t>endommager</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>pantalons</t>
+  </si>
+  <si>
+    <t>stained</t>
+  </si>
+  <si>
+    <t>tachés</t>
+  </si>
+  <si>
+    <t>unsaleable</t>
+  </si>
+  <si>
+    <t>Non vendable</t>
+  </si>
+  <si>
+    <t>be sent back</t>
+  </si>
+  <si>
+    <t>renvoyé</t>
+  </si>
+  <si>
+    <t>recurrence</t>
+  </si>
+  <si>
+    <t>répétition</t>
+  </si>
+  <si>
+    <t>to meet an order</t>
+  </si>
+  <si>
+    <t>honorer</t>
+  </si>
+  <si>
+    <t>looking trough</t>
+  </si>
+  <si>
+    <t>parcourir</t>
+  </si>
+  <si>
+    <t>been surprised at</t>
+  </si>
+  <si>
+    <t>être surpris par</t>
+  </si>
+  <si>
+    <t>to meet orders</t>
+  </si>
+  <si>
+    <t>honorer une commande</t>
+  </si>
+  <si>
+    <t>to be prepared to do something</t>
+  </si>
+  <si>
+    <t>être disposé à faire quelque chose</t>
+  </si>
+  <si>
+    <t>to look forward to</t>
+  </si>
+  <si>
+    <t>se réjouir d'avance de</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>relevé de compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inconvenience </t>
+  </si>
+  <si>
+    <t>dérangement, désagrément</t>
+  </si>
+  <si>
+    <t>to settle the balance</t>
+  </si>
+  <si>
+    <t>régler le solde, la différence (rétablir l'équilibre)</t>
+  </si>
+  <si>
+    <t>to perform a calculation</t>
+  </si>
+  <si>
+    <t>effectuer un calcul</t>
+  </si>
+  <si>
+    <t>to effect a payment</t>
+  </si>
+  <si>
+    <t>effectuer un paiement</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>thus, hence, therefore, as a result</t>
+  </si>
+  <si>
+    <t>the former</t>
+  </si>
+  <si>
+    <t>&gt;&lt; the latter</t>
+  </si>
+  <si>
+    <t>the first</t>
+  </si>
+  <si>
+    <t>&gt;&lt; the last (Si on a une liste d'au moins trois choses)</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>&gt;&lt; tight</t>
+  </si>
+  <si>
+    <t>lâche, ample</t>
+  </si>
+  <si>
+    <t>feels cold</t>
+  </si>
+  <si>
+    <t>avoir froid</t>
+  </si>
+  <si>
+    <t>shut down the factory</t>
+  </si>
+  <si>
+    <t>arrêter la production</t>
+  </si>
+  <si>
+    <t>a few</t>
+  </si>
+  <si>
+    <t>quelques</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>peu</t>
+  </si>
+  <si>
+    <t>realize</t>
+  </si>
+  <si>
+    <t>to understand, to be aware of something</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>aim, objective</t>
+  </si>
+  <si>
+    <t>to borrow</t>
+  </si>
+  <si>
+    <t>&gt;&lt; to lend</t>
+  </si>
+  <si>
+    <t>every other night</t>
+  </si>
+  <si>
+    <t>un soir sur deux</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>les genoux</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>malgré</t>
+  </si>
+  <si>
+    <t>in spite of</t>
+  </si>
+  <si>
+    <t>en dépit de</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bien que</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>albeit</t>
+  </si>
+  <si>
+    <t>quoique</t>
+  </si>
+  <si>
+    <t>même si</t>
+  </si>
+  <si>
+    <t>even though</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>cependant, par contre</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>cependant, néanmoins</t>
+  </si>
+  <si>
+    <t>nevertheless</t>
+  </si>
+  <si>
+    <t>nonetheless</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>tandis que</t>
+  </si>
+  <si>
+    <t>whilst</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>alors que, tandis que</t>
+  </si>
+  <si>
+    <t>on the other hand</t>
+  </si>
+  <si>
+    <t>d'un autre coté</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>cours, conférence</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>because of</t>
+  </si>
+  <si>
+    <t>on account of</t>
+  </si>
+  <si>
+    <t>owing to</t>
+  </si>
+  <si>
+    <t>à cause de</t>
+  </si>
+  <si>
+    <t>pour cause de</t>
+  </si>
+  <si>
+    <t>given (that)</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>due to</t>
+  </si>
+  <si>
+    <t>thanks to</t>
+  </si>
+  <si>
+    <t>puisque</t>
+  </si>
+  <si>
+    <t>grâce à</t>
+  </si>
+  <si>
+    <t>to collapse</t>
+  </si>
+  <si>
+    <t>s'écrouler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to</t>
+  </si>
+  <si>
+    <t>so as to</t>
+  </si>
+  <si>
+    <t>in order to</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>in order that</t>
+  </si>
+  <si>
+    <t>lest</t>
+  </si>
+  <si>
+    <t>for fear</t>
+  </si>
+  <si>
+    <t>afin de</t>
+  </si>
+  <si>
+    <t>pour que</t>
+  </si>
+  <si>
+    <t>afin que</t>
+  </si>
+  <si>
+    <t>de crainte de</t>
+  </si>
+  <si>
+    <t>par peur de</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>hence</t>
+  </si>
+  <si>
+    <t>as a result</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>thereby</t>
+  </si>
+  <si>
+    <t>ainsi</t>
+  </si>
+  <si>
+    <t>par ce moyen là</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>provided that</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>unless (except if)</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>à condition que, pourvu que</t>
+  </si>
+  <si>
+    <t>si alternatif</t>
+  </si>
+  <si>
+    <t>besides</t>
+  </si>
+  <si>
+    <t>in addition</t>
+  </si>
+  <si>
+    <t>in addition to</t>
+  </si>
+  <si>
+    <t>furthermore</t>
+  </si>
+  <si>
+    <t>moreover</t>
+  </si>
+  <si>
+    <t>what's more</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>together with</t>
+  </si>
+  <si>
+    <t>de plus</t>
+  </si>
+  <si>
+    <t>en plus de</t>
+  </si>
+  <si>
+    <t>aussi, également</t>
+  </si>
+  <si>
+    <t>ainsi que</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>instead of</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>à la plce de cela</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand </t>
+  </si>
+  <si>
+    <t>par la taille</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>gros</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>par ses actes</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>stupide</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>affaires</t>
+  </si>
+  <si>
+    <t>the area, the field</t>
+  </si>
+  <si>
+    <t>to practice</t>
+  </si>
+  <si>
+    <t>le domaine, le champ</t>
+  </si>
+  <si>
+    <t>pratiquer, excercer</t>
+  </si>
+  <si>
+    <t>He is known as a programmer analyst</t>
+  </si>
+  <si>
+    <t>Il est connu sous le nom d'analyste programmeur</t>
+  </si>
+  <si>
+    <t>the primary computer language</t>
+  </si>
+  <si>
+    <t>the above title</t>
+  </si>
+  <si>
+    <t>to possess</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>deragotary</t>
+  </si>
+  <si>
+    <t>to spark a debat</t>
+  </si>
+  <si>
+    <t>amongst, among</t>
+  </si>
+  <si>
+    <t>outsider</t>
+  </si>
+  <si>
+    <t>It puzzles me, I'm puzzled at this</t>
+  </si>
+  <si>
+    <t>entented for</t>
+  </si>
+  <si>
+    <t>although, though</t>
+  </si>
+  <si>
+    <t>to decree</t>
+  </si>
+  <si>
+    <t>leap year</t>
+  </si>
+  <si>
+    <t>to design, to conceive</t>
+  </si>
+  <si>
+    <t>to vary</t>
+  </si>
+  <si>
+    <t>to depend on, to depend upon</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>usually, typically</t>
+  </si>
+  <si>
+    <t>to hold a certification</t>
+  </si>
+  <si>
+    <t>widely</t>
+  </si>
+  <si>
+    <t>to disagree</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>le langage informatique principal</t>
+  </si>
+  <si>
+    <t>le titre ci-dessus</t>
+  </si>
+  <si>
+    <t>posséder</t>
+  </si>
+  <si>
+    <t>des compétences</t>
+  </si>
+  <si>
+    <t>au-delà de</t>
+  </si>
+  <si>
+    <t>désobligeant, péjoratif</t>
+  </si>
+  <si>
+    <t>déclencher un débat</t>
+  </si>
+  <si>
+    <t>parmi</t>
+  </si>
+  <si>
+    <t>personne étrangère</t>
+  </si>
+  <si>
+    <t>cela m'intrigue</t>
+  </si>
+  <si>
+    <t>destiné à</t>
+  </si>
+  <si>
+    <t>décréter</t>
+  </si>
+  <si>
+    <t>année bissextile</t>
+  </si>
+  <si>
+    <t>concevoir</t>
+  </si>
+  <si>
+    <t>varier</t>
+  </si>
+  <si>
+    <t>dépendre de</t>
+  </si>
+  <si>
+    <t>cadre, décor</t>
+  </si>
+  <si>
+    <t>y compris</t>
+  </si>
+  <si>
+    <t>d'enreprise, d'une société</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>d'habitude, normalement</t>
+  </si>
+  <si>
+    <t>avoir un certificat, une certification</t>
+  </si>
+  <si>
+    <t>largement, communément</t>
+  </si>
+  <si>
+    <t>ne pas être d'accord</t>
+  </si>
+  <si>
+    <t>motif, raison</t>
+  </si>
+  <si>
+    <t>impliqué, en cause, en jeu</t>
+  </si>
+  <si>
+    <t>des dossiers financiers</t>
+  </si>
+  <si>
+    <t>refaire, reproduire, dupliquer</t>
+  </si>
+  <si>
+    <t>recevoir une formation, s'entrainer</t>
+  </si>
+  <si>
+    <t>Le programme peut être écrit en quelques heures</t>
+  </si>
+  <si>
+    <t>des formules mathématiques</t>
+  </si>
+  <si>
+    <t>se rapprocher de</t>
+  </si>
+  <si>
+    <t>involve</t>
+  </si>
+  <si>
+    <t>financial records</t>
+  </si>
+  <si>
+    <t>to dupplicate</t>
+  </si>
+  <si>
+    <t>to train</t>
+  </si>
+  <si>
+    <t>The program can be written in a few hours</t>
+  </si>
+  <si>
+    <t>mathematical formulas</t>
+  </si>
+  <si>
+    <t>to approximate</t>
+  </si>
+  <si>
+    <t>Ils peuvent nécessiter plus d'une année de travail</t>
+  </si>
+  <si>
+    <t>They may require more than a year of work</t>
+  </si>
+  <si>
+    <t>dans la plupart des cas</t>
+  </si>
+  <si>
+    <t>plusieurs programmeurs</t>
+  </si>
+  <si>
+    <t>un programmeur principal</t>
+  </si>
+  <si>
+    <t>selon</t>
+  </si>
+  <si>
+    <t>principalement</t>
+  </si>
+  <si>
+    <t>In most cases</t>
+  </si>
+  <si>
+    <t>Several programmers</t>
+  </si>
+  <si>
+    <t>a senior programmer</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>Le processus de conception est achevé</t>
+  </si>
+  <si>
+    <t>The design process is complete</t>
+  </si>
+  <si>
+    <t>l'objectif</t>
+  </si>
+  <si>
+    <t>généralement</t>
+  </si>
+  <si>
+    <t>un ordinateur de milieu de gamme</t>
+  </si>
+  <si>
+    <t>par exemple</t>
+  </si>
+  <si>
+    <t>être composé de</t>
+  </si>
+  <si>
+    <t>The purposen the objective, the goal, the aim</t>
+  </si>
+  <si>
+    <t>commonly, generally</t>
+  </si>
+  <si>
+    <t>midrange computer</t>
+  </si>
+  <si>
+    <t>while, whereas</t>
+  </si>
+  <si>
+    <t>for example, for instance</t>
+  </si>
+  <si>
+    <t>to be made up of, to consist of</t>
+  </si>
+  <si>
+    <t>Elle nous fait prendre conscience du problème</t>
+  </si>
+  <si>
+    <t>She makes us aware of the problem</t>
+  </si>
+  <si>
+    <t>être conscient de</t>
+  </si>
+  <si>
+    <t>to be aware of</t>
+  </si>
+  <si>
+    <t>Le programme doit exécuter la tâche</t>
+  </si>
+  <si>
+    <t>The program must perform the task</t>
+  </si>
+  <si>
+    <t>to customize</t>
+  </si>
+  <si>
+    <t>to yield</t>
+  </si>
+  <si>
+    <t>a more reliable program</t>
+  </si>
+  <si>
+    <t>to look for bugs</t>
+  </si>
+  <si>
+    <t>until, till</t>
+  </si>
+  <si>
+    <t>to remain</t>
+  </si>
+  <si>
+    <t>de sorte que, afin que</t>
+  </si>
+  <si>
+    <t>personnaliser</t>
+  </si>
+  <si>
+    <t>produire, rapporter, donner</t>
+  </si>
+  <si>
+    <t>un programme plus fiable</t>
+  </si>
+  <si>
+    <t>rechercher les erreurs</t>
+  </si>
+  <si>
+    <t>jusque, jusqu'à ce que</t>
+  </si>
+  <si>
+    <t>rester, subsister</t>
+  </si>
+  <si>
+    <t>régler un problème</t>
+  </si>
+  <si>
+    <t>to fix a problem</t>
+  </si>
+  <si>
+    <t>durant, pendant</t>
+  </si>
+  <si>
+    <t>étendre, développer</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>un chemin</t>
+  </si>
+  <si>
+    <t>choisir de faire quelque chose</t>
+  </si>
+  <si>
+    <t>pertinent, approprié</t>
+  </si>
+  <si>
+    <t>hors de propos, sans rapport, qui n'a rien à voir</t>
+  </si>
+  <si>
+    <t>correctement, convenablement</t>
+  </si>
+  <si>
+    <t>évaluer, estimer</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>euphémiquement, par euphémisme</t>
+  </si>
+  <si>
+    <t>deux grandes sortes</t>
+  </si>
+  <si>
+    <t>traiter, manipuler</t>
+  </si>
+  <si>
+    <t>acheter</t>
+  </si>
+  <si>
+    <t>par contraste</t>
+  </si>
+  <si>
+    <t>un système de gestion de base de données</t>
+  </si>
+  <si>
+    <t>une société</t>
+  </si>
+  <si>
+    <t>soit … soit …</t>
+  </si>
+  <si>
+    <t>aller (de … à …)</t>
+  </si>
+  <si>
+    <t>logiciel didactique</t>
+  </si>
+  <si>
+    <t>publication assistée par ordinateur</t>
+  </si>
+  <si>
+    <t>planification financière</t>
+  </si>
+  <si>
+    <t>être responsable de</t>
+  </si>
+  <si>
+    <t>vrai, véritable</t>
+  </si>
+  <si>
+    <t>estomper, effacer, troubler</t>
+  </si>
+  <si>
+    <t>une distinction autrefois rigide</t>
+  </si>
+  <si>
+    <t>de plus en plus</t>
+  </si>
+  <si>
+    <t>habile, adroit, expert</t>
+  </si>
+  <si>
+    <t>prendre, reprendre, s'emparer de</t>
+  </si>
+  <si>
+    <t>troughout</t>
+  </si>
+  <si>
+    <t>to expand</t>
+  </si>
+  <si>
+    <t>user guide</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>elect to do something</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>inadequate</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>euphemistically</t>
+  </si>
+  <si>
+    <t>two broad types</t>
+  </si>
+  <si>
+    <t>to handle</t>
+  </si>
+  <si>
+    <t>to purchase</t>
+  </si>
+  <si>
+    <t>in contrast</t>
+  </si>
+  <si>
+    <t>database management system</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>either either</t>
+  </si>
+  <si>
+    <t>from to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educationnal software </t>
+  </si>
+  <si>
+    <t>dekstop publishing</t>
+  </si>
+  <si>
+    <t>financial planning</t>
+  </si>
+  <si>
+    <t>to be responsible for</t>
+  </si>
+  <si>
+    <t>to blur</t>
+  </si>
+  <si>
+    <t>once rigid distinction</t>
+  </si>
+  <si>
+    <t>increasingly</t>
+  </si>
+  <si>
+    <t>adept</t>
+  </si>
+  <si>
+    <t>to take over</t>
+  </si>
+  <si>
+    <t>précédemment</t>
+  </si>
+  <si>
+    <t>exécuter une tache</t>
+  </si>
+  <si>
+    <t>l'utilisation grandissante</t>
+  </si>
+  <si>
+    <t>un tableur</t>
+  </si>
+  <si>
+    <t>un logiciel de gestion de base de données</t>
+  </si>
+  <si>
+    <t>permettre à quelqu'un de faire quelque chose</t>
+  </si>
+  <si>
+    <t>accéder à des données</t>
+  </si>
+  <si>
+    <t>de plus, de surcroit</t>
+  </si>
+  <si>
+    <t>ressor (la montée) d'Internet</t>
+  </si>
+  <si>
+    <t>immense, énorme</t>
+  </si>
+  <si>
+    <t>de plus en plus d'applications</t>
+  </si>
+  <si>
+    <t>n'importe qui</t>
+  </si>
+  <si>
+    <t>un logiciel de navigation sur le web</t>
+  </si>
+  <si>
+    <t>de telles applications</t>
+  </si>
+  <si>
+    <t>inclure, comprendre</t>
+  </si>
+  <si>
+    <t>partager</t>
+  </si>
+  <si>
+    <t>un portail</t>
+  </si>
+  <si>
+    <t>un "dirigeant" de système informatique</t>
+  </si>
+  <si>
+    <t>besoin, exigence</t>
+  </si>
+  <si>
+    <t>ceux qui s'occupent de développement de logiciels</t>
+  </si>
+  <si>
+    <t>un cahier des charges</t>
+  </si>
+  <si>
+    <t>modifier (amender) un programme</t>
+  </si>
+  <si>
+    <t>un jeu, (un ensemble) d'instructions</t>
+  </si>
+  <si>
+    <t>assurer, garantir</t>
+  </si>
+  <si>
+    <t>justesse, exactitude</t>
+  </si>
+  <si>
+    <t>responsabilité</t>
+  </si>
+  <si>
+    <t>previously</t>
+  </si>
+  <si>
+    <t>to perform a task</t>
+  </si>
+  <si>
+    <t>the growing use</t>
+  </si>
+  <si>
+    <t>an spreadsheet</t>
+  </si>
+  <si>
+    <t>to allow someone to do something</t>
+  </si>
+  <si>
+    <t>to access data</t>
+  </si>
+  <si>
+    <t>In addition = Furthermore = Moreover = Besides = What's more</t>
+  </si>
+  <si>
+    <t>the rise of the Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huge </t>
+  </si>
+  <si>
+    <t>More and more applications</t>
+  </si>
+  <si>
+    <t>anyone, anybody</t>
+  </si>
+  <si>
+    <t>a Web browser</t>
+  </si>
+  <si>
+    <t>such applications</t>
+  </si>
+  <si>
+    <t>to include</t>
+  </si>
+  <si>
+    <t>to share</t>
+  </si>
+  <si>
+    <t>a portal</t>
+  </si>
+  <si>
+    <t>a computer system officer</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>These involved in software development</t>
+  </si>
+  <si>
+    <t>specifications of requirements</t>
+  </si>
+  <si>
+    <t>to amend a program, to alter a program</t>
+  </si>
+  <si>
+    <t>a set of instructions</t>
+  </si>
+  <si>
+    <t>to ensure</t>
+  </si>
+  <si>
+    <t>correctness, accuracy</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>documentation d'aide</t>
+  </si>
+  <si>
+    <t>supporting documentation</t>
+  </si>
+  <si>
+    <t>for example = for instance</t>
+  </si>
+  <si>
+    <t>Il a une expérience considérable</t>
+  </si>
+  <si>
+    <t>Ils doivent (on exige d'eux qu'ils) diriger une équipe de développeurs</t>
+  </si>
+  <si>
+    <t>He has substantial experience</t>
+  </si>
+  <si>
+    <t>They must supervise a team of developpers</t>
+  </si>
+  <si>
+    <t>They are required to supervise a team of developpers</t>
+  </si>
+  <si>
+    <t>donc, de ce fait</t>
+  </si>
+  <si>
+    <t>prévoir, programmer, organiser</t>
+  </si>
+  <si>
+    <t>rendre compte (faire un rapport) de (sur)</t>
+  </si>
+  <si>
+    <t>les(s) progrès, la progression</t>
+  </si>
+  <si>
+    <t>c'est-à-dire</t>
+  </si>
+  <si>
+    <t>améliorer</t>
+  </si>
+  <si>
+    <t>le niveau de responsabilité</t>
+  </si>
+  <si>
+    <t>système d'exploitation</t>
+  </si>
+  <si>
+    <t>logiciel de communication</t>
+  </si>
+  <si>
+    <t>un programme utilitaire</t>
+  </si>
+  <si>
+    <t>compilateur</t>
+  </si>
+  <si>
+    <t>et cetera</t>
+  </si>
+  <si>
+    <t>une technique de programmation</t>
+  </si>
+  <si>
+    <t>selon, suivant</t>
+  </si>
+  <si>
+    <t>spécifications + cahier de charges</t>
+  </si>
+  <si>
+    <t>entreprendre</t>
+  </si>
+  <si>
+    <t>actuel</t>
+  </si>
+  <si>
+    <t>une méthode (une approche)</t>
+  </si>
+  <si>
+    <t>interface utilisateur</t>
+  </si>
+  <si>
+    <t>la(les) performance(s)</t>
+  </si>
+  <si>
+    <t>faciliter</t>
+  </si>
+  <si>
+    <t>technologie de pointe</t>
+  </si>
+  <si>
+    <t>évaluer, apprécier</t>
+  </si>
+  <si>
+    <t>faire un rapport sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thus = hence = consequently = therefore = thereby = so = as a result = That is why </t>
+  </si>
+  <si>
+    <t>to schedule</t>
+  </si>
+  <si>
+    <t>to report on</t>
+  </si>
+  <si>
+    <t>the progress</t>
+  </si>
+  <si>
+    <t>that is = that is to say = i.e.</t>
+  </si>
+  <si>
+    <t>to enhance = to improve</t>
+  </si>
+  <si>
+    <t>the level of responsibility</t>
+  </si>
+  <si>
+    <t>operating sytem</t>
+  </si>
+  <si>
+    <t>communication software</t>
+  </si>
+  <si>
+    <t>utility program</t>
+  </si>
+  <si>
+    <t>compiler</t>
+  </si>
+  <si>
+    <t>and so forth, and so on, etcetera</t>
+  </si>
+  <si>
+    <t>programming technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specifications  </t>
+  </si>
+  <si>
+    <t>to undertake (undertook, undertaken)</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>an approach</t>
+  </si>
+  <si>
+    <t>user interface</t>
+  </si>
+  <si>
+    <t>a performance</t>
+  </si>
+  <si>
+    <t>to facilitate = to ease</t>
+  </si>
+  <si>
+    <t>leading edge technologies</t>
+  </si>
+  <si>
+    <t>to appaise = to evaluate = to assess</t>
+  </si>
+  <si>
+    <t>aider, faciliter (assister)</t>
+  </si>
+  <si>
+    <t>faire des recommandations</t>
+  </si>
+  <si>
+    <t>technologie avancée</t>
+  </si>
+  <si>
+    <t>lié, connexe (qui se rattache à)</t>
+  </si>
+  <si>
+    <t>plan de production</t>
+  </si>
+  <si>
+    <t>parcours professionnel</t>
+  </si>
+  <si>
+    <t>to assist = to help</t>
+  </si>
+  <si>
+    <t>to make recommendations</t>
+  </si>
+  <si>
+    <t>advanced technology</t>
+  </si>
+  <si>
+    <t>related to = linked = bound</t>
+  </si>
+  <si>
+    <t>production schedule</t>
+  </si>
+  <si>
+    <t>Carreer path</t>
+  </si>
+  <si>
+    <t>Ils peuvent passer à des postes de directions</t>
+  </si>
+  <si>
+    <t>They can progress to management positions</t>
+  </si>
+  <si>
+    <t>garantie (assurance) de qualité</t>
+  </si>
+  <si>
+    <t>d'habitude</t>
+  </si>
+  <si>
+    <t>au moins</t>
+  </si>
+  <si>
+    <t>diplôme</t>
+  </si>
+  <si>
+    <t>matière principale</t>
+  </si>
+  <si>
+    <t>technologie de l'information</t>
+  </si>
+  <si>
+    <t>système de gestion</t>
+  </si>
+  <si>
+    <t>ingéniérie logicielle</t>
+  </si>
+  <si>
+    <t>un diplomé</t>
+  </si>
+  <si>
+    <t>pertinent</t>
+  </si>
+  <si>
+    <t>organisme, organisation</t>
+  </si>
+  <si>
+    <t>parallèlement à</t>
+  </si>
+  <si>
+    <t>les études détaillées ci-dessus</t>
+  </si>
+  <si>
+    <t>cela aiderait à obtenir ce rôle</t>
+  </si>
+  <si>
+    <t>chercher un job</t>
+  </si>
+  <si>
+    <t>profiter de, tirer avantage de</t>
+  </si>
+  <si>
+    <t>qualités et défauts (d'une personne)</t>
+  </si>
+  <si>
+    <t>Il est indépendant (il ne compte pas sur les autres)</t>
+  </si>
+  <si>
+    <t>quality insurance</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>at least</t>
+  </si>
+  <si>
+    <t>a degree = a dpiloma</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>information technology</t>
+  </si>
+  <si>
+    <t>Management system</t>
+  </si>
+  <si>
+    <t>Software engineering</t>
+  </si>
+  <si>
+    <t>though = although</t>
+  </si>
+  <si>
+    <t>a graduate = a bachelor</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>parallel to</t>
+  </si>
+  <si>
+    <t>the studies detailled above</t>
+  </si>
+  <si>
+    <t>It would help to obtain this job</t>
+  </si>
+  <si>
+    <t>to look for a job = to seek a job</t>
+  </si>
+  <si>
+    <t>to take advantage of</t>
+  </si>
+  <si>
+    <t>qualities and flows</t>
+  </si>
+  <si>
+    <t>He is self reliant</t>
+  </si>
+  <si>
+    <t>Je suis capable de faire du travail indépendant (par moi-même)</t>
+  </si>
+  <si>
+    <t>Je sais travailler en équipe</t>
+  </si>
+  <si>
+    <t>Je suis capable de communiquer avec des personnes de milieux différents</t>
+  </si>
+  <si>
+    <t>Il est persévérant</t>
+  </si>
+  <si>
+    <t>I'm capable of doing the wotk on my own (independent work, doing the job by myself)</t>
+  </si>
+  <si>
+    <t>I'm capable of working as a member of a team</t>
+  </si>
+  <si>
+    <t>I'm able to communicate with people from different background</t>
+  </si>
+  <si>
+    <t>He is persistent</t>
+  </si>
+  <si>
+    <t>exact, précis</t>
+  </si>
+  <si>
+    <t>une personne imaginative</t>
+  </si>
+  <si>
+    <t>capacité conceptuelle</t>
+  </si>
+  <si>
+    <t>résolution de problèmes</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>an imaginative person</t>
+  </si>
+  <si>
+    <t>de bonnes qualités relationelles</t>
+  </si>
+  <si>
+    <t>good interpersonnal skills</t>
+  </si>
+  <si>
+    <t>conceptual ability</t>
+  </si>
+  <si>
+    <t>problem solving</t>
+  </si>
+  <si>
+    <t>Il a des compétences en analyse et en résolution de problèmes</t>
+  </si>
+  <si>
+    <t>He has skills in analysis and problem solving</t>
+  </si>
+  <si>
+    <t>noter, corriger (ou enregister) les résultats</t>
+  </si>
+  <si>
+    <t>bonne connaissance des produits de la société</t>
+  </si>
+  <si>
+    <t>indications, instructions</t>
+  </si>
+  <si>
+    <t>en résumé</t>
+  </si>
+  <si>
+    <t>divers langages de programmation</t>
+  </si>
+  <si>
+    <t>décrire en détail</t>
+  </si>
+  <si>
+    <t>les besoins de l'utilisateur</t>
+  </si>
+  <si>
+    <t>aider quelqu'un à faire quelque chose</t>
+  </si>
+  <si>
+    <t>améliorer les capacités du programme</t>
+  </si>
+  <si>
+    <t>faire des modifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier (amender)  </t>
+  </si>
+  <si>
+    <t>personnel de soutien</t>
+  </si>
+  <si>
+    <t>satisfaire aux besoins de quelqu'un</t>
+  </si>
+  <si>
+    <t>to record the results</t>
+  </si>
+  <si>
+    <t>good knowledge of company products</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>in summer = to sum up = in a nutshell</t>
+  </si>
+  <si>
+    <t>a variety of programming langages</t>
+  </si>
+  <si>
+    <t>to describe in details</t>
+  </si>
+  <si>
+    <t>the user requirements</t>
+  </si>
+  <si>
+    <t>to help someone to do something = to assist someone do something</t>
+  </si>
+  <si>
+    <t>to enhance the program's capabilities</t>
+  </si>
+  <si>
+    <t>to make amendments</t>
+  </si>
+  <si>
+    <t>to amend, to modify</t>
+  </si>
+  <si>
+    <t>support personnel</t>
+  </si>
+  <si>
+    <t>to meet someone requirements</t>
+  </si>
+  <si>
+    <t>Les programmes satisfont aux besoins de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Ils sont livrés à l'heure</t>
+  </si>
+  <si>
+    <t>The program meet the user's requirements</t>
+  </si>
+  <si>
+    <t>They are describd on time</t>
+  </si>
+  <si>
+    <t>étude, apprentissage</t>
+  </si>
+  <si>
+    <t>un domaine</t>
+  </si>
+  <si>
+    <t>un diplôme</t>
+  </si>
+  <si>
+    <t>un diplôme supérieur</t>
+  </si>
+  <si>
+    <t>pertinent + très utile</t>
+  </si>
+  <si>
+    <t>un atout, un avantage</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>area, field</t>
+  </si>
+  <si>
+    <t>a diploma = a degree = tertiary qualification</t>
+  </si>
+  <si>
+    <t>a tertiary qualification</t>
+  </si>
+  <si>
+    <t>an asset</t>
+  </si>
+  <si>
+    <t>une certification en java est un atout</t>
+  </si>
+  <si>
+    <t>a certification in java is an asset</t>
+  </si>
+  <si>
+    <t>les avantages et les inconvénients</t>
+  </si>
+  <si>
+    <t>the advantages and drawbacks</t>
+  </si>
+  <si>
+    <t>Il a une connaissance approfondie des systèmes d'exploitation</t>
+  </si>
+  <si>
+    <t>He has a deep (in depth, extensive) knowledge of operating system</t>
+  </si>
+  <si>
+    <t>Cette carière me plairait</t>
+  </si>
+  <si>
+    <t>Il a des connaissances en bases de données relationelles</t>
+  </si>
+  <si>
+    <t>les technologies qui s'y rattachent</t>
+  </si>
+  <si>
+    <t>Il a l'esprit d'équipe</t>
+  </si>
+  <si>
+    <t>this carreer will appeal to me</t>
+  </si>
+  <si>
+    <t>he has knowledges of relationnal databases</t>
+  </si>
+  <si>
+    <t>The related technologies</t>
+  </si>
+  <si>
+    <t>He has a team-oriented spirit</t>
+  </si>
+  <si>
+    <t>faire très attention à</t>
+  </si>
+  <si>
+    <t>Il a d'excellentes compétences en résolution de problèmes</t>
+  </si>
+  <si>
+    <t>Il est capable d'avoir un raisonnement logique</t>
+  </si>
+  <si>
+    <t>Il sait aborder un problème de façon méthodique</t>
+  </si>
+  <si>
+    <t>Il est capable de prendre des initiatives</t>
+  </si>
+  <si>
+    <t>Il est patient et persévérant</t>
+  </si>
+  <si>
+    <t>He has excellent problem solving skills</t>
+  </si>
+  <si>
+    <t>He can think logically</t>
+  </si>
+  <si>
+    <t>to pay close attention to</t>
+  </si>
+  <si>
+    <t>He has an methodical approach</t>
+  </si>
+  <si>
+    <t>He is patient and persistent</t>
+  </si>
+  <si>
+    <t>He is capable of taking initiatives</t>
+  </si>
+  <si>
+    <t>débuter (une carrière)</t>
+  </si>
+  <si>
+    <t>un programmeur qualifié</t>
+  </si>
+  <si>
+    <t>à jour</t>
+  </si>
+  <si>
+    <t>se tenir au courant de quelque chose</t>
+  </si>
+  <si>
+    <t>les dernières technologies</t>
+  </si>
+  <si>
+    <t>promouvoir</t>
+  </si>
+  <si>
+    <t>Il a au moins 5 années d'expérience</t>
+  </si>
+  <si>
+    <t>Starting out, to start a career</t>
+  </si>
+  <si>
+    <t>a skiled programmer</t>
+  </si>
+  <si>
+    <t>up to date</t>
+  </si>
+  <si>
+    <t>to keep up to date</t>
+  </si>
+  <si>
+    <t>the latest technology</t>
+  </si>
+  <si>
+    <t>to promote</t>
+  </si>
+  <si>
+    <t>He has at least 5 years experience</t>
+  </si>
+  <si>
+    <t>Il peut passer à un poste programmeur-analyste</t>
+  </si>
+  <si>
+    <t>He can move onto an analyst programmer job</t>
+  </si>
+  <si>
+    <t>vers, dans la direction de</t>
+  </si>
+  <si>
+    <t>une fois (que)</t>
+  </si>
+  <si>
+    <t>going towards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once  </t>
+  </si>
+  <si>
+    <t>Un programmeur extrêmement expérimenté</t>
+  </si>
+  <si>
+    <t>savoir-faire, compétence</t>
+  </si>
+  <si>
+    <t>comporter, entraîner</t>
+  </si>
+  <si>
+    <t>qie se rattache(nt) à</t>
+  </si>
+  <si>
+    <t>quant à, en ce qui concerne</t>
+  </si>
+  <si>
+    <t>le contenu d'un article</t>
+  </si>
+  <si>
+    <t>a highly experienced programmer</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related to  </t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>the contents of an article</t>
+  </si>
+  <si>
+    <t>l'étendue, la gamme</t>
+  </si>
+  <si>
+    <t>acclamer, saluer</t>
+  </si>
+  <si>
+    <t>une décénnie</t>
+  </si>
+  <si>
+    <t>des domaines liés à la technologie de l'information</t>
+  </si>
+  <si>
+    <t>the scope</t>
+  </si>
+  <si>
+    <t>to hail</t>
+  </si>
+  <si>
+    <t>a decade</t>
+  </si>
+  <si>
+    <t>fields related to the IT</t>
+  </si>
+  <si>
+    <t>Les offres d'emploi ont grimpé en flèche ces quelques dernières années</t>
+  </si>
+  <si>
+    <t>jobs opening have skyrocketted in the last few years</t>
+  </si>
+  <si>
+    <t>sans parler de</t>
+  </si>
+  <si>
+    <t>not to mention</t>
+  </si>
+  <si>
+    <t>La concurrence a énormément augmenté</t>
+  </si>
+  <si>
+    <t>un travail raisonnablement bien payé</t>
+  </si>
+  <si>
+    <t>traiter de, s'occuper de</t>
+  </si>
+  <si>
+    <t>the competition has equally increased tremendously</t>
+  </si>
+  <si>
+    <t>a decently paid job</t>
+  </si>
+  <si>
+    <t>la firme pour laquelle ils travaillent</t>
+  </si>
+  <si>
+    <t>externaliser</t>
+  </si>
+  <si>
+    <t>to deal</t>
+  </si>
+  <si>
+    <t>the firm they are working with</t>
+  </si>
+  <si>
+    <t>to outsource</t>
+  </si>
+  <si>
+    <t>C'est devenus une tendance très populaire</t>
+  </si>
+  <si>
+    <t>It becomes a very popular trend</t>
+  </si>
+  <si>
+    <t>un aspect moins connus du travail</t>
+  </si>
+  <si>
+    <t>quand il faut faciliter</t>
+  </si>
+  <si>
+    <t>exiger</t>
+  </si>
+  <si>
+    <t>des qualités de gestionnaire</t>
+  </si>
+  <si>
+    <t>to improve</t>
+  </si>
+  <si>
+    <t>a lesser know facet of the job</t>
+  </si>
+  <si>
+    <t>When it comes to facilitating</t>
+  </si>
+  <si>
+    <t>skills of management</t>
+  </si>
+  <si>
+    <t>Il a le droit de (Il est habilité à) diriger l'équipe</t>
+  </si>
+  <si>
+    <t>He is entitled to lead the team</t>
+  </si>
+  <si>
+    <t>atteindre un objectif</t>
+  </si>
+  <si>
+    <t>en plus de, outre</t>
+  </si>
+  <si>
+    <t>exécuter toute une série de tâches</t>
+  </si>
+  <si>
+    <t>un rapport, un compte-rendu</t>
+  </si>
+  <si>
+    <t>repondre à (satisfaire) des besoins (des exigences)</t>
+  </si>
+  <si>
+    <t>une large gamme de, une grande série de</t>
+  </si>
+  <si>
+    <t>to meet an objective</t>
+  </si>
+  <si>
+    <t>Furthermore</t>
+  </si>
+  <si>
+    <t>to perform various tasks</t>
+  </si>
+  <si>
+    <t>a report</t>
+  </si>
+  <si>
+    <t>to meet requirements</t>
+  </si>
+  <si>
+    <t>a wide range of</t>
+  </si>
+  <si>
+    <t>J'ai un diplôme d'informatique (études supérieures de 3 ans)</t>
+  </si>
+  <si>
+    <t>I have a bachelor's degree in computer science</t>
+  </si>
+  <si>
+    <t>principal, fondamental</t>
+  </si>
+  <si>
+    <t>Une connaissance approfondie de divers langage de programmation</t>
+  </si>
+  <si>
+    <t>obligatoire</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>an in-depth knowledge of various programming languages</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>un bon travail</t>
+  </si>
+  <si>
+    <t>a decent job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beside </t>
+  </si>
+  <si>
+    <t>Le candidat doit être capable de mener plusieurs tâches de front</t>
+  </si>
+  <si>
+    <t>The applicant must be able to lead background tasks</t>
+  </si>
+  <si>
+    <t>l'intégrité, l'honnêteté</t>
+  </si>
+  <si>
+    <t>logiciel de marque déposée, exclusif à une société</t>
+  </si>
+  <si>
+    <t>un trait</t>
+  </si>
+  <si>
+    <t>gagner de l'argent</t>
+  </si>
+  <si>
+    <t>un travail stimulant (qui met à l'épreuve, un défi)</t>
+  </si>
+  <si>
+    <t>finalement</t>
+  </si>
+  <si>
+    <t>engager du personnel</t>
+  </si>
+  <si>
+    <t>attrayant, séduisant</t>
+  </si>
+  <si>
+    <t>un poste, une situation</t>
+  </si>
+  <si>
+    <t>le point fort</t>
+  </si>
+  <si>
+    <t>je suis autonome</t>
+  </si>
+  <si>
+    <t>enthousiaste, impatient</t>
+  </si>
+  <si>
+    <t>J'aime apprendre de nouvelles choses</t>
+  </si>
+  <si>
+    <t>s'acharner, s'efforcer</t>
+  </si>
+  <si>
+    <t>un curriculum vitae</t>
+  </si>
+  <si>
+    <t>on peut me contacter à n'importe quelle heure</t>
+  </si>
+  <si>
+    <t>un téléphone portable, un GSM</t>
+  </si>
+  <si>
+    <t>Merci pour votre attention et votre temps</t>
+  </si>
+  <si>
+    <t>integrity, honesty</t>
+  </si>
+  <si>
+    <t>proprietary software</t>
+  </si>
+  <si>
+    <t>a trait</t>
+  </si>
+  <si>
+    <t>to earn money</t>
+  </si>
+  <si>
+    <t>I'm eager to learn new things</t>
+  </si>
+  <si>
+    <t>to strive</t>
+  </si>
+  <si>
+    <t>a resume</t>
+  </si>
+  <si>
+    <t>I can be reached at any time</t>
+  </si>
+  <si>
+    <t>a cellphone</t>
+  </si>
+  <si>
+    <t>Thank you for your time and consideration</t>
+  </si>
+  <si>
+    <t>Je vous prie d'agréer Monsieur/Madame/Messieurs mes salutations distinguées</t>
+  </si>
+  <si>
+    <t>prénom</t>
+  </si>
+  <si>
+    <t>nom de famille</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -495,8 +3318,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,17 +3637,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,24 +3995,2870 @@
         <v>86</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>308</v>
+      </c>
+      <c r="B49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>362</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>371</v>
+      </c>
+      <c r="B63" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>388</v>
+      </c>
+      <c r="B71" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B73" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>394</v>
+      </c>
+      <c r="B74" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>408</v>
+      </c>
+      <c r="B81" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>410</v>
+      </c>
+      <c r="B82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>416</v>
+      </c>
+      <c r="C85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>418</v>
+      </c>
+      <c r="C86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>422</v>
+      </c>
+      <c r="B88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>425</v>
+      </c>
+      <c r="B89" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>437</v>
+      </c>
+      <c r="C94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>449</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>454</v>
+      </c>
+      <c r="B103" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>456</v>
+      </c>
+      <c r="B104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>458</v>
+      </c>
+      <c r="B105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>459</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>460</v>
+      </c>
+      <c r="B107" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>462</v>
+      </c>
+      <c r="B108" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>463</v>
+      </c>
+      <c r="B109" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>465</v>
+      </c>
+      <c r="B110" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>467</v>
+      </c>
+      <c r="B111" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>478</v>
+      </c>
+      <c r="B119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>480</v>
+      </c>
+      <c r="B121" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>483</v>
+      </c>
+      <c r="B122" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>485</v>
+      </c>
+      <c r="B123" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>488</v>
+      </c>
+      <c r="B126" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>489</v>
+      </c>
+      <c r="B127" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>490</v>
+      </c>
+      <c r="B128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>491</v>
+      </c>
+      <c r="B129" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>498</v>
+      </c>
+      <c r="B132" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>506</v>
+      </c>
+      <c r="B139" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>509</v>
+      </c>
+      <c r="B141" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>512</v>
+      </c>
+      <c r="B142" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>513</v>
+      </c>
+      <c r="B143" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>514</v>
+      </c>
+      <c r="B144" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>515</v>
+      </c>
+      <c r="B145" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>516</v>
+      </c>
+      <c r="B146" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>517</v>
+      </c>
+      <c r="B147" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>518</v>
+      </c>
+      <c r="B148" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>519</v>
+      </c>
+      <c r="B149" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>520</v>
+      </c>
+      <c r="B150" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>525</v>
+      </c>
+      <c r="B151" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>529</v>
+      </c>
+      <c r="B154" t="s">
+        <v>530</v>
+      </c>
+      <c r="C154" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>532</v>
+      </c>
+      <c r="B155" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>534</v>
+      </c>
+      <c r="B156" t="s">
+        <v>530</v>
+      </c>
+      <c r="C156" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>536</v>
+      </c>
+      <c r="B157" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>538</v>
+      </c>
+      <c r="B158" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>540</v>
+      </c>
+      <c r="B159" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>541</v>
+      </c>
+      <c r="B160" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>546</v>
+      </c>
+      <c r="B161" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>547</v>
+      </c>
+      <c r="B162" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>548</v>
+      </c>
+      <c r="B163" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>549</v>
+      </c>
+      <c r="B164" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>550</v>
+      </c>
+      <c r="B165" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>551</v>
+      </c>
+      <c r="B166" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>552</v>
+      </c>
+      <c r="B167" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>553</v>
+      </c>
+      <c r="B168" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>554</v>
+      </c>
+      <c r="B169" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>555</v>
+      </c>
+      <c r="B170" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>556</v>
+      </c>
+      <c r="B171" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>557</v>
+      </c>
+      <c r="B172" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>558</v>
+      </c>
+      <c r="B173" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>559</v>
+      </c>
+      <c r="B174" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>560</v>
+      </c>
+      <c r="B175" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>561</v>
+      </c>
+      <c r="B176" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>562</v>
+      </c>
+      <c r="B177" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>563</v>
+      </c>
+      <c r="B178" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>564</v>
+      </c>
+      <c r="B179" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>565</v>
+      </c>
+      <c r="B180" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>566</v>
+      </c>
+      <c r="B181" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>567</v>
+      </c>
+      <c r="B182" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>568</v>
+      </c>
+      <c r="B183" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>569</v>
+      </c>
+      <c r="B184" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>570</v>
+      </c>
+      <c r="B185" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>571</v>
+      </c>
+      <c r="B186" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>604</v>
+      </c>
+      <c r="B187" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>605</v>
+      </c>
+      <c r="B188" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>606</v>
+      </c>
+      <c r="B189" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>607</v>
+      </c>
+      <c r="B190" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>609</v>
+      </c>
+      <c r="B191" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>610</v>
+      </c>
+      <c r="B192" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>618</v>
+      </c>
+      <c r="B193" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>619</v>
+      </c>
+      <c r="B194" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>620</v>
+      </c>
+      <c r="B195" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>621</v>
+      </c>
+      <c r="B196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>622</v>
+      </c>
+      <c r="B197" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>630</v>
+      </c>
+      <c r="B198" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>631</v>
+      </c>
+      <c r="B199" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>632</v>
+      </c>
+      <c r="B200" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>633</v>
+      </c>
+      <c r="B201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>634</v>
+      </c>
+      <c r="B202" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>635</v>
+      </c>
+      <c r="B203" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>639</v>
+      </c>
+      <c r="B204" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>488</v>
+      </c>
+      <c r="B205" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>642</v>
+      </c>
+      <c r="B206" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>643</v>
+      </c>
+      <c r="B207" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>644</v>
+      </c>
+      <c r="B208" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>645</v>
+      </c>
+      <c r="B209" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>646</v>
+      </c>
+      <c r="B210" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>647</v>
+      </c>
+      <c r="B211" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>656</v>
+      </c>
+      <c r="B212" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>687</v>
+      </c>
+      <c r="B213" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>688</v>
+      </c>
+      <c r="B214" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>659</v>
+      </c>
+      <c r="B215" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>689</v>
+      </c>
+      <c r="B216" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>690</v>
+      </c>
+      <c r="B217" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>691</v>
+      </c>
+      <c r="B218" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>692</v>
+      </c>
+      <c r="B219" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>693</v>
+      </c>
+      <c r="B220" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>694</v>
+      </c>
+      <c r="B221" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>695</v>
+      </c>
+      <c r="B222" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>696</v>
+      </c>
+      <c r="B224" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>697</v>
+      </c>
+      <c r="B225" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>698</v>
+      </c>
+      <c r="B226" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>699</v>
+      </c>
+      <c r="B227" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>700</v>
+      </c>
+      <c r="B228" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>701</v>
+      </c>
+      <c r="B229" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>702</v>
+      </c>
+      <c r="B230" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>703</v>
+      </c>
+      <c r="B231" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>704</v>
+      </c>
+      <c r="B232" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>705</v>
+      </c>
+      <c r="B233" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>706</v>
+      </c>
+      <c r="B234" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>707</v>
+      </c>
+      <c r="B235" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>708</v>
+      </c>
+      <c r="B236" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>622</v>
+      </c>
+      <c r="B237" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>709</v>
+      </c>
+      <c r="B238" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>710</v>
+      </c>
+      <c r="B239" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>711</v>
+      </c>
+      <c r="B240" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>712</v>
+      </c>
+      <c r="B241" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>713</v>
+      </c>
+      <c r="B242" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>740</v>
+      </c>
+      <c r="B243" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>741</v>
+      </c>
+      <c r="B244" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>742</v>
+      </c>
+      <c r="B245" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>743</v>
+      </c>
+      <c r="B246" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>701</v>
+      </c>
+      <c r="B247" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>744</v>
+      </c>
+      <c r="B248" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>745</v>
+      </c>
+      <c r="B249" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>746</v>
+      </c>
+      <c r="B250" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>747</v>
+      </c>
+      <c r="B251" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>748</v>
+      </c>
+      <c r="B252" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>749</v>
+      </c>
+      <c r="B253" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>750</v>
+      </c>
+      <c r="B254" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>751</v>
+      </c>
+      <c r="B255" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>752</v>
+      </c>
+      <c r="B256" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>753</v>
+      </c>
+      <c r="B257" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>754</v>
+      </c>
+      <c r="B258" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>755</v>
+      </c>
+      <c r="B259" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>756</v>
+      </c>
+      <c r="B260" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>757</v>
+      </c>
+      <c r="B261" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>758</v>
+      </c>
+      <c r="B262" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>759</v>
+      </c>
+      <c r="B263" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>760</v>
+      </c>
+      <c r="B264" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>761</v>
+      </c>
+      <c r="B265" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>762</v>
+      </c>
+      <c r="B266" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>763</v>
+      </c>
+      <c r="B267" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>708</v>
+      </c>
+      <c r="B268" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>764</v>
+      </c>
+      <c r="B269" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>766</v>
+      </c>
+      <c r="B270" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>767</v>
+      </c>
+      <c r="B271" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>797</v>
+      </c>
+      <c r="B272" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>798</v>
+      </c>
+      <c r="B273" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>799</v>
+      </c>
+      <c r="B274" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>800</v>
+      </c>
+      <c r="B275" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>801</v>
+      </c>
+      <c r="B276" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>802</v>
+      </c>
+      <c r="B277" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>803</v>
+      </c>
+      <c r="B278" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>804</v>
+      </c>
+      <c r="B279" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>805</v>
+      </c>
+      <c r="B280" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>806</v>
+      </c>
+      <c r="B281" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>807</v>
+      </c>
+      <c r="B282" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>808</v>
+      </c>
+      <c r="B283" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>809</v>
+      </c>
+      <c r="B284" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>621</v>
+      </c>
+      <c r="B285" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>810</v>
+      </c>
+      <c r="B286" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>811</v>
+      </c>
+      <c r="B287" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>812</v>
+      </c>
+      <c r="B288" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>813</v>
+      </c>
+      <c r="B289" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>814</v>
+      </c>
+      <c r="B290" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>815</v>
+      </c>
+      <c r="B291" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>816</v>
+      </c>
+      <c r="B292" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>817</v>
+      </c>
+      <c r="B293" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>818</v>
+      </c>
+      <c r="B294" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>799</v>
+      </c>
+      <c r="B295" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>825</v>
+      </c>
+      <c r="B296" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>826</v>
+      </c>
+      <c r="B297" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>827</v>
+      </c>
+      <c r="B298" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>828</v>
+      </c>
+      <c r="B299" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>829</v>
+      </c>
+      <c r="B300" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>830</v>
+      </c>
+      <c r="B301" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>851</v>
+      </c>
+      <c r="B302" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>852</v>
+      </c>
+      <c r="B303" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>853</v>
+      </c>
+      <c r="B304" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>854</v>
+      </c>
+      <c r="B305" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>855</v>
+      </c>
+      <c r="B306" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>856</v>
+      </c>
+      <c r="B307" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>857</v>
+      </c>
+      <c r="B308" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>858</v>
+      </c>
+      <c r="B309" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>859</v>
+      </c>
+      <c r="B310" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>860</v>
+      </c>
+      <c r="B311" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>692</v>
+      </c>
+      <c r="B312" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>861</v>
+      </c>
+      <c r="B313" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>862</v>
+      </c>
+      <c r="B314" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>863</v>
+      </c>
+      <c r="B315" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>864</v>
+      </c>
+      <c r="B316" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>865</v>
+      </c>
+      <c r="B317" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>866</v>
+      </c>
+      <c r="B318" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>867</v>
+      </c>
+      <c r="B319" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>868</v>
+      </c>
+      <c r="B320" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>881</v>
+      </c>
+      <c r="B321" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>882</v>
+      </c>
+      <c r="B322" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>884</v>
+      </c>
+      <c r="B323" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>885</v>
+      </c>
+      <c r="B324" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>886</v>
+      </c>
+      <c r="B325" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>902</v>
+      </c>
+      <c r="B326" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>903</v>
+      </c>
+      <c r="B327" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>904</v>
+      </c>
+      <c r="B328" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>905</v>
+      </c>
+      <c r="B329" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>906</v>
+      </c>
+      <c r="B330" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>907</v>
+      </c>
+      <c r="B331" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>908</v>
+      </c>
+      <c r="B332" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>909</v>
+      </c>
+      <c r="B333" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>910</v>
+      </c>
+      <c r="B334" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>911</v>
+      </c>
+      <c r="B335" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>912</v>
+      </c>
+      <c r="B336" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>913</v>
+      </c>
+      <c r="B337" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>914</v>
+      </c>
+      <c r="B338" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>925</v>
+      </c>
+      <c r="B339" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>926</v>
+      </c>
+      <c r="B340" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>927</v>
+      </c>
+      <c r="B341" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>928</v>
+      </c>
+      <c r="B342" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>692</v>
+      </c>
+      <c r="B343" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>929</v>
+      </c>
+      <c r="B344" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>933</v>
+      </c>
+      <c r="B345" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>830</v>
+      </c>
+      <c r="B346" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>963</v>
+      </c>
+      <c r="B347" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>964</v>
+      </c>
+      <c r="B348" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>965</v>
+      </c>
+      <c r="B349" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>966</v>
+      </c>
+      <c r="B350" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>967</v>
+      </c>
+      <c r="B351" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>968</v>
+      </c>
+      <c r="B352" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>974</v>
+      </c>
+      <c r="B353" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>975</v>
+      </c>
+      <c r="B354" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>982</v>
+      </c>
+      <c r="B355" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>983</v>
+      </c>
+      <c r="B356" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>984</v>
+      </c>
+      <c r="B358" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>985</v>
+      </c>
+      <c r="B359" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>986</v>
+      </c>
+      <c r="B360" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>991</v>
+      </c>
+      <c r="B361" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>992</v>
+      </c>
+      <c r="B362" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>993</v>
+      </c>
+      <c r="B363" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>994</v>
+      </c>
+      <c r="B364" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>998</v>
+      </c>
+      <c r="B365" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B369" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,7 +6930,7 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1373,7 +7045,7 @@
       <c r="A19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1405,6 +7077,1124 @@
       </c>
       <c r="C22" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" t="s">
+        <v>317</v>
+      </c>
+      <c r="C118" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>331</v>
+      </c>
+      <c r="C121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>333</v>
+      </c>
+      <c r="C122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>337</v>
+      </c>
+      <c r="C123" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>369</v>
+      </c>
+      <c r="B131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>427</v>
+      </c>
+      <c r="C132" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>544</v>
+      </c>
+      <c r="C133" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>608</v>
+      </c>
+      <c r="C134" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>612</v>
+      </c>
+      <c r="C135" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>624</v>
+      </c>
+      <c r="C136" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>637</v>
+      </c>
+      <c r="C137" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>641</v>
+      </c>
+      <c r="C138" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>770</v>
+      </c>
+      <c r="C139" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>771</v>
+      </c>
+      <c r="B140" t="s">
+        <v>772</v>
+      </c>
+      <c r="C140" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>832</v>
+      </c>
+      <c r="C141" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>873</v>
+      </c>
+      <c r="C142" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>874</v>
+      </c>
+      <c r="C143" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>875</v>
+      </c>
+      <c r="C144" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>876</v>
+      </c>
+      <c r="C145" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>888</v>
+      </c>
+      <c r="C146" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>917</v>
+      </c>
+      <c r="C147" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>918</v>
+      </c>
+      <c r="C148" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>931</v>
+      </c>
+      <c r="C149" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>935</v>
+      </c>
+      <c r="C150" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>940</v>
+      </c>
+      <c r="C151" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>941</v>
+      </c>
+      <c r="C152" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>942</v>
+      </c>
+      <c r="C153" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>943</v>
+      </c>
+      <c r="C154" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>952</v>
+      </c>
+      <c r="C155" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>950</v>
+      </c>
+      <c r="C156" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>951</v>
+      </c>
+      <c r="C157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>953</v>
+      </c>
+      <c r="C158" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>955</v>
+      </c>
+      <c r="C159" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>954</v>
+      </c>
+      <c r="C160" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>969</v>
+      </c>
+      <c r="C161" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>971</v>
+      </c>
+      <c r="C162" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>996</v>
+      </c>
+      <c r="C163" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C164" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
